--- a/xlsx/country_comparison/why_hic_help_lic_share.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_share.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.179930795847751</v>
+        <v>0.210650887573964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220858895705521</v>
+        <v>0.230419977298524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.296747967479675</v>
+        <v>0.170184696569921</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.328719723183391</v>
+        <v>0.343195266272189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383435582822086</v>
+        <v>0.383654937570942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.353658536585366</v>
+        <v>0.316622691292876</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.510059171597633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.521472392638037</v>
+        <v>0.531214528944381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.621951219512195</v>
+        <v>0.559366754617414</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.134948096885813</v>
+        <v>0.118343195266272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220858895705521</v>
+        <v>0.212258796821793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0853658536585366</v>
+        <v>0.199208443271768</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/why_hic_help_lic_share.xlsx
+++ b/xlsx/country_comparison/why_hic_help_lic_share.xlsx
@@ -386,13 +386,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.210650887573964</v>
+        <v>0.213305174234424</v>
       </c>
       <c r="C2" t="n">
         <v>0.230419977298524</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170184696569921</v>
+        <v>0.166482910694598</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +400,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343195266272189</v>
+        <v>0.347412882787751</v>
       </c>
       <c r="C3" t="n">
         <v>0.383654937570942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.316622691292876</v>
+        <v>0.304299889746417</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.510059171597633</v>
+        <v>0.502639915522703</v>
       </c>
       <c r="C4" t="n">
         <v>0.531214528944381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.559366754617414</v>
+        <v>0.560088202866593</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118343195266272</v>
+        <v>0.118268215417107</v>
       </c>
       <c r="C5" t="n">
         <v>0.212258796821793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199208443271768</v>
+        <v>0.205071664829107</v>
       </c>
     </row>
   </sheetData>
